--- a/data/pca/factorExposure/factorExposure_2016-09-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.005716816385191173</v>
+        <v>-0.01401590821222639</v>
       </c>
       <c r="C2">
-        <v>-0.05019279792814361</v>
+        <v>0.04264391716004389</v>
       </c>
       <c r="D2">
-        <v>0.0254672993741499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06658598430978817</v>
+      </c>
+      <c r="E2">
+        <v>0.05380654802637062</v>
+      </c>
+      <c r="F2">
+        <v>-0.08575658708922984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.0572409969790036</v>
+        <v>-0.03329830601321852</v>
       </c>
       <c r="C3">
-        <v>-0.09977118411736585</v>
+        <v>0.07951908603189908</v>
       </c>
       <c r="D3">
-        <v>0.0618923780091679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09549828175798952</v>
+      </c>
+      <c r="E3">
+        <v>0.06518127301285194</v>
+      </c>
+      <c r="F3">
+        <v>-0.01707966286271466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06064852645589202</v>
+        <v>-0.05713183349381446</v>
       </c>
       <c r="C4">
-        <v>-0.05727903613832246</v>
+        <v>0.06506924771068175</v>
       </c>
       <c r="D4">
-        <v>0.02361294123244975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06151302752203588</v>
+      </c>
+      <c r="E4">
+        <v>0.04980150909456182</v>
+      </c>
+      <c r="F4">
+        <v>-0.08225852234463479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03062042296479178</v>
+        <v>-0.0331416821090804</v>
       </c>
       <c r="C6">
-        <v>-0.04116558487787338</v>
+        <v>0.03573301744220875</v>
       </c>
       <c r="D6">
-        <v>0.02666800829922435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07026712001505321</v>
+      </c>
+      <c r="E6">
+        <v>0.05979203194176929</v>
+      </c>
+      <c r="F6">
+        <v>-0.0720083180806082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01639747309519151</v>
+        <v>-0.01952034339610816</v>
       </c>
       <c r="C7">
-        <v>-0.04056672610534824</v>
+        <v>0.03667006079178851</v>
       </c>
       <c r="D7">
-        <v>-0.00622355043600977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03972444109728839</v>
+      </c>
+      <c r="E7">
+        <v>0.03375215277116043</v>
+      </c>
+      <c r="F7">
+        <v>-0.1071825064017476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002416347731774889</v>
+        <v>-0.003947200448686326</v>
       </c>
       <c r="C8">
-        <v>-0.02216752737812997</v>
+        <v>0.02721909248747524</v>
       </c>
       <c r="D8">
-        <v>0.02742312885376915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03605215001406564</v>
+      </c>
+      <c r="E8">
+        <v>0.04137854914597686</v>
+      </c>
+      <c r="F8">
+        <v>-0.05263462703700326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03084857062957834</v>
+        <v>-0.03644951664596151</v>
       </c>
       <c r="C9">
-        <v>-0.04167123172106964</v>
+        <v>0.0508851666847078</v>
       </c>
       <c r="D9">
-        <v>0.01343419984391501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04650785851455214</v>
+      </c>
+      <c r="E9">
+        <v>0.04355306428802096</v>
+      </c>
+      <c r="F9">
+        <v>-0.09018915368865589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07358303924778864</v>
+        <v>-0.1021348870944354</v>
       </c>
       <c r="C10">
-        <v>0.1938600810772727</v>
+        <v>-0.191939966782575</v>
       </c>
       <c r="D10">
-        <v>0.007966049538516647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0003377994889121355</v>
+      </c>
+      <c r="E10">
+        <v>0.04596961549479014</v>
+      </c>
+      <c r="F10">
+        <v>-0.03921532343588302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0357094162880476</v>
+        <v>-0.03533385745314525</v>
       </c>
       <c r="C11">
-        <v>-0.05515377090661729</v>
+        <v>0.05106920540474229</v>
       </c>
       <c r="D11">
-        <v>0.002049458741000864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03468490342543348</v>
+      </c>
+      <c r="E11">
+        <v>0.006193260181258429</v>
+      </c>
+      <c r="F11">
+        <v>-0.0655089505611251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03390442940014318</v>
+        <v>-0.03605858235683052</v>
       </c>
       <c r="C12">
-        <v>-0.04583425454227823</v>
+        <v>0.04709345752360102</v>
       </c>
       <c r="D12">
-        <v>0.0001091888705871336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02662658669021061</v>
+      </c>
+      <c r="E12">
+        <v>0.01590839967888402</v>
+      </c>
+      <c r="F12">
+        <v>-0.06712129812410317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01103700775402591</v>
+        <v>-0.01187686153260208</v>
       </c>
       <c r="C13">
-        <v>-0.04175306150565974</v>
+        <v>0.04073458468103122</v>
       </c>
       <c r="D13">
-        <v>0.01375783607043559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06635824175708196</v>
+      </c>
+      <c r="E13">
+        <v>0.06473130534100945</v>
+      </c>
+      <c r="F13">
+        <v>-0.1137280381880721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.005165906293393212</v>
+        <v>-0.005520725476723603</v>
       </c>
       <c r="C14">
-        <v>-0.0332304793280768</v>
+        <v>0.02953411991387368</v>
       </c>
       <c r="D14">
-        <v>-0.01895658420734598</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03093548962292315</v>
+      </c>
+      <c r="E14">
+        <v>0.02923460816165467</v>
+      </c>
+      <c r="F14">
+        <v>-0.0982003110436275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001359549028838927</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00274063421879992</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.003463011983752752</v>
+      </c>
+      <c r="E15">
+        <v>-2.373317385068629e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.002501448966494448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03242287445922386</v>
+        <v>-0.03286796587088195</v>
       </c>
       <c r="C16">
-        <v>-0.04293298097932007</v>
+        <v>0.0453842474524728</v>
       </c>
       <c r="D16">
-        <v>0.00428152989380242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02981493900540777</v>
+      </c>
+      <c r="E16">
+        <v>0.02056068506828247</v>
+      </c>
+      <c r="F16">
+        <v>-0.06914188336843509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02072364855207329</v>
+        <v>-0.01617390222605376</v>
       </c>
       <c r="C19">
-        <v>-0.06063046870572297</v>
+        <v>0.04994095956054686</v>
       </c>
       <c r="D19">
-        <v>0.06781341685949052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1017812078923128</v>
+      </c>
+      <c r="E19">
+        <v>0.08144652211569059</v>
+      </c>
+      <c r="F19">
+        <v>-0.0920461255509121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01228102472569053</v>
+        <v>-0.01334745999162756</v>
       </c>
       <c r="C20">
-        <v>-0.04462467273578941</v>
+        <v>0.04005695043607084</v>
       </c>
       <c r="D20">
-        <v>0.0149562808707184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04280339771169436</v>
+      </c>
+      <c r="E20">
+        <v>0.05697169388311186</v>
+      </c>
+      <c r="F20">
+        <v>-0.0882651294718132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.008426492441807222</v>
+        <v>-0.008420216363585364</v>
       </c>
       <c r="C21">
-        <v>-0.0501683433711328</v>
+        <v>0.04426219375754646</v>
       </c>
       <c r="D21">
-        <v>0.03211374473037504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07366149990365146</v>
+      </c>
+      <c r="E21">
+        <v>0.07526882311537596</v>
+      </c>
+      <c r="F21">
+        <v>-0.1342481847916514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0003586374339499406</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02253120520444939</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03468609449371287</v>
+      </c>
+      <c r="E22">
+        <v>0.01668830920055261</v>
+      </c>
+      <c r="F22">
+        <v>-0.01640321322879899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0004258351385374354</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02266028303037548</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0343822999549189</v>
+      </c>
+      <c r="E23">
+        <v>0.01698180331096241</v>
+      </c>
+      <c r="F23">
+        <v>-0.01627971036075481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02681488482408918</v>
+        <v>-0.03190772642136189</v>
       </c>
       <c r="C24">
-        <v>-0.04830820777979852</v>
+        <v>0.05303487774907863</v>
       </c>
       <c r="D24">
-        <v>2.075843684523313e-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02812771365107192</v>
+      </c>
+      <c r="E24">
+        <v>0.01808344037056763</v>
+      </c>
+      <c r="F24">
+        <v>-0.07704072931737435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04173495421784368</v>
+        <v>-0.04215668869118461</v>
       </c>
       <c r="C25">
-        <v>-0.05970306249031927</v>
+        <v>0.05786730598845795</v>
       </c>
       <c r="D25">
-        <v>-0.008429283544400187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02577598172557096</v>
+      </c>
+      <c r="E25">
+        <v>0.01321864701867738</v>
+      </c>
+      <c r="F25">
+        <v>-0.08034731620965664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01243054665881006</v>
+        <v>-0.01369750871044576</v>
       </c>
       <c r="C26">
-        <v>-0.01690055389094757</v>
+        <v>0.01596674613920199</v>
       </c>
       <c r="D26">
-        <v>0.0007003951018606795</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02713562738953738</v>
+      </c>
+      <c r="E26">
+        <v>0.0300718243852374</v>
+      </c>
+      <c r="F26">
+        <v>-0.07384907173493985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08547545419587838</v>
+        <v>-0.1371702032156814</v>
       </c>
       <c r="C28">
-        <v>0.2215259240628489</v>
+        <v>-0.2403606961388855</v>
       </c>
       <c r="D28">
-        <v>0.004792271408200563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01521838935445283</v>
+      </c>
+      <c r="E28">
+        <v>0.04968605112685331</v>
+      </c>
+      <c r="F28">
+        <v>-0.05316356952376747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.008765950019457748</v>
+        <v>-0.006390974870325281</v>
       </c>
       <c r="C29">
-        <v>-0.02625645575922008</v>
+        <v>0.0254472788217941</v>
       </c>
       <c r="D29">
-        <v>-0.01733754730185936</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02473387252941162</v>
+      </c>
+      <c r="E29">
+        <v>0.03118616245922545</v>
+      </c>
+      <c r="F29">
+        <v>-0.09016571787379982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04607502887201823</v>
+        <v>-0.04040440805563442</v>
       </c>
       <c r="C30">
-        <v>-0.0608777625058314</v>
+        <v>0.06468242504203917</v>
       </c>
       <c r="D30">
-        <v>0.0419838738510252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1089899859218093</v>
+      </c>
+      <c r="E30">
+        <v>0.04116858351484122</v>
+      </c>
+      <c r="F30">
+        <v>-0.101825453193936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04505825295737118</v>
+        <v>-0.05439520818308029</v>
       </c>
       <c r="C31">
-        <v>-0.0333642726067683</v>
+        <v>0.05385678912277369</v>
       </c>
       <c r="D31">
-        <v>-0.01704891856670251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.006048810439206681</v>
+      </c>
+      <c r="E31">
+        <v>0.05024831344574117</v>
+      </c>
+      <c r="F31">
+        <v>-0.0806190326658994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.006726593428420358</v>
+        <v>-0.004852127291216061</v>
       </c>
       <c r="C32">
-        <v>-0.04593351946634991</v>
+        <v>0.03259735655737901</v>
       </c>
       <c r="D32">
-        <v>0.01458203283359982</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05135797518474989</v>
+      </c>
+      <c r="E32">
+        <v>0.02439363002800307</v>
+      </c>
+      <c r="F32">
+        <v>-0.07294489345665964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02428271084854605</v>
+        <v>-0.02408491826596571</v>
       </c>
       <c r="C33">
-        <v>-0.06072148506427721</v>
+        <v>0.05387750197348778</v>
       </c>
       <c r="D33">
-        <v>0.02241108609961314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08411457056422994</v>
+      </c>
+      <c r="E33">
+        <v>0.05129163955107349</v>
+      </c>
+      <c r="F33">
+        <v>-0.127761573178025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04320049745973009</v>
+        <v>-0.04016912850087312</v>
       </c>
       <c r="C34">
-        <v>-0.05804714967795489</v>
+        <v>0.06351638533891744</v>
       </c>
       <c r="D34">
-        <v>-0.006904173497140819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0351204364515888</v>
+      </c>
+      <c r="E34">
+        <v>-0.005345659622602152</v>
+      </c>
+      <c r="F34">
+        <v>-0.07493288381060227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.008509958555848463</v>
+        <v>-0.01379711549773668</v>
       </c>
       <c r="C36">
-        <v>-0.01370627506214908</v>
+        <v>0.01174105283028809</v>
       </c>
       <c r="D36">
-        <v>-5.888555033973874e-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03003070515414536</v>
+      </c>
+      <c r="E36">
+        <v>0.03670484114800934</v>
+      </c>
+      <c r="F36">
+        <v>-0.08216720651560384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03029315120874423</v>
+        <v>-0.02469850729972922</v>
       </c>
       <c r="C38">
-        <v>-0.02979244501749233</v>
+        <v>0.02550116491754864</v>
       </c>
       <c r="D38">
-        <v>0.0006940436591073926</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02862416474183707</v>
+      </c>
+      <c r="E38">
+        <v>0.03551101856241935</v>
+      </c>
+      <c r="F38">
+        <v>-0.0651235579828775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.03883535608045996</v>
+        <v>-0.03801069832572403</v>
       </c>
       <c r="C39">
-        <v>-0.07098287558185674</v>
+        <v>0.06823495098665516</v>
       </c>
       <c r="D39">
-        <v>0.01986397966003151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05363365246054947</v>
+      </c>
+      <c r="E39">
+        <v>0.02007979816757785</v>
+      </c>
+      <c r="F39">
+        <v>-0.09100539655463198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01625022169245019</v>
+        <v>-0.01696703916315936</v>
       </c>
       <c r="C40">
-        <v>-0.03042465219388575</v>
+        <v>0.0362730199725745</v>
       </c>
       <c r="D40">
-        <v>0.03349269385128676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04320333595738141</v>
+      </c>
+      <c r="E40">
+        <v>0.07419085319466717</v>
+      </c>
+      <c r="F40">
+        <v>-0.0893345806157845</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.008654182775423415</v>
+        <v>-0.01837773659600243</v>
       </c>
       <c r="C41">
-        <v>-0.006711113136152894</v>
+        <v>0.005763858778174634</v>
       </c>
       <c r="D41">
-        <v>-0.001378923154665724</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01935161248135497</v>
+      </c>
+      <c r="E41">
+        <v>0.0393105143284672</v>
+      </c>
+      <c r="F41">
+        <v>-0.07102619822736997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.00193348064508854</v>
+        <v>-0.001321088490794755</v>
       </c>
       <c r="C42">
-        <v>-0.005863756067610235</v>
+        <v>0.00312936641353797</v>
       </c>
       <c r="D42">
-        <v>0.007618082051312872</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0002305762668942913</v>
+      </c>
+      <c r="E42">
+        <v>0.007422495557841542</v>
+      </c>
+      <c r="F42">
+        <v>0.006136758282951332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03023651116612819</v>
+        <v>-0.03009438389599936</v>
       </c>
       <c r="C43">
-        <v>-0.02206730006611481</v>
+        <v>0.02055245545737909</v>
       </c>
       <c r="D43">
-        <v>0.004755468936656116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04319536626921365</v>
+      </c>
+      <c r="E43">
+        <v>0.04482962034161121</v>
+      </c>
+      <c r="F43">
+        <v>-0.08359804637056693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01528858085506653</v>
+        <v>-0.01459767818970089</v>
       </c>
       <c r="C44">
-        <v>-0.05911584369391437</v>
+        <v>0.05111277035679793</v>
       </c>
       <c r="D44">
-        <v>0.01450923919377419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04255335567792578</v>
+      </c>
+      <c r="E44">
+        <v>0.05869277796723398</v>
+      </c>
+      <c r="F44">
+        <v>-0.08984662014447092</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.00024581607143876</v>
+        <v>-0.007393941224756018</v>
       </c>
       <c r="C46">
-        <v>-0.02346687351253999</v>
+        <v>0.02484946837786119</v>
       </c>
       <c r="D46">
-        <v>-0.01995730580510659</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01524366996881939</v>
+      </c>
+      <c r="E46">
+        <v>0.03676289944585677</v>
+      </c>
+      <c r="F46">
+        <v>-0.1033604114519864</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.07929677527483078</v>
+        <v>-0.08552462501011247</v>
       </c>
       <c r="C47">
-        <v>-0.07103704565890533</v>
+        <v>0.08096493875155221</v>
       </c>
       <c r="D47">
-        <v>-0.00676960233340695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01544185185401386</v>
+      </c>
+      <c r="E47">
+        <v>0.05576757695788229</v>
+      </c>
+      <c r="F47">
+        <v>-0.07785618535558607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01812767712302726</v>
+        <v>-0.01598956509231823</v>
       </c>
       <c r="C48">
-        <v>-0.01212463426307145</v>
+        <v>0.01721326453158141</v>
       </c>
       <c r="D48">
-        <v>-0.005150313366491312</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02022272336752142</v>
+      </c>
+      <c r="E48">
+        <v>0.04749737433688005</v>
+      </c>
+      <c r="F48">
+        <v>-0.09563365977720077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.086856226739553</v>
+        <v>-0.07218997284185827</v>
       </c>
       <c r="C50">
-        <v>-0.06784223709921999</v>
+        <v>0.07032153625778097</v>
       </c>
       <c r="D50">
-        <v>-0.01769157608728981</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002778013113079274</v>
+      </c>
+      <c r="E50">
+        <v>0.05292335512980978</v>
+      </c>
+      <c r="F50">
+        <v>-0.0674756559646835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.008385468901301849</v>
+        <v>-0.01036443428841095</v>
       </c>
       <c r="C51">
-        <v>-0.04674798273831401</v>
+        <v>0.03268559031629873</v>
       </c>
       <c r="D51">
-        <v>0.0004536192707621921</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05005529309503743</v>
+      </c>
+      <c r="E51">
+        <v>0.02174223279946528</v>
+      </c>
+      <c r="F51">
+        <v>-0.08602752803915902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.08246467469712321</v>
+        <v>-0.09130485559832467</v>
       </c>
       <c r="C53">
-        <v>-0.07509108928782332</v>
+        <v>0.08896792608353665</v>
       </c>
       <c r="D53">
-        <v>-0.0214315213706311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03717837986314688</v>
+      </c>
+      <c r="E53">
+        <v>0.05486491668837881</v>
+      </c>
+      <c r="F53">
+        <v>-0.08721637211692673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03010984021782135</v>
+        <v>-0.0282077474494811</v>
       </c>
       <c r="C54">
-        <v>-0.02033455370297118</v>
+        <v>0.02637952890726402</v>
       </c>
       <c r="D54">
-        <v>-0.001872369543835322</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03349068100414402</v>
+      </c>
+      <c r="E54">
+        <v>0.04185212349003865</v>
+      </c>
+      <c r="F54">
+        <v>-0.09530650885565857</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.0712457326784897</v>
+        <v>-0.08220793367351348</v>
       </c>
       <c r="C55">
-        <v>-0.06679722091251102</v>
+        <v>0.07257491904753315</v>
       </c>
       <c r="D55">
-        <v>-0.02752113472867571</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04524786979933582</v>
+      </c>
+      <c r="E55">
+        <v>0.04414995055892134</v>
+      </c>
+      <c r="F55">
+        <v>-0.06344366743391179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1494894679835324</v>
+        <v>-0.1437211633596777</v>
       </c>
       <c r="C56">
-        <v>-0.09238299298328072</v>
+        <v>0.1070198878129848</v>
       </c>
       <c r="D56">
-        <v>-0.02501726573744702</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04863744220579292</v>
+      </c>
+      <c r="E56">
+        <v>0.04895014474546645</v>
+      </c>
+      <c r="F56">
+        <v>-0.05045745250187331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.0009960696213861505</v>
+        <v>-0.0003405874088335653</v>
       </c>
       <c r="C57">
-        <v>-0.00365438441257092</v>
+        <v>0.001924815478009457</v>
       </c>
       <c r="D57">
-        <v>0.01749797891781451</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01615282775752178</v>
+      </c>
+      <c r="E57">
+        <v>0.007126686099154593</v>
+      </c>
+      <c r="F57">
+        <v>-0.0110819608843979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0583193008459135</v>
+        <v>-0.03098748764731398</v>
       </c>
       <c r="C58">
-        <v>-0.02867706127521253</v>
+        <v>0.03812089929653401</v>
       </c>
       <c r="D58">
-        <v>0.9526765815786329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4965137991990653</v>
+      </c>
+      <c r="E58">
+        <v>0.6681889770030499</v>
+      </c>
+      <c r="F58">
+        <v>0.4745863280043822</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1357704115241442</v>
+        <v>-0.1497871516051218</v>
       </c>
       <c r="C59">
-        <v>0.2050933002565251</v>
+        <v>-0.1861600318642179</v>
       </c>
       <c r="D59">
-        <v>0.02313144987023163</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0309527663544121</v>
+      </c>
+      <c r="E59">
+        <v>0.02586784411138135</v>
+      </c>
+      <c r="F59">
+        <v>-0.02151012595443912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3095726408149748</v>
+        <v>-0.2795380370018924</v>
       </c>
       <c r="C60">
-        <v>-0.09324460810647099</v>
+        <v>0.09987988239763565</v>
       </c>
       <c r="D60">
-        <v>0.0034715086169324</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2011896993745364</v>
+      </c>
+      <c r="E60">
+        <v>-0.2852802999547355</v>
+      </c>
+      <c r="F60">
+        <v>0.1157052756392668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03628204698814577</v>
+        <v>-0.03971549876571284</v>
       </c>
       <c r="C61">
-        <v>-0.06380264224572317</v>
+        <v>0.06172222580126947</v>
       </c>
       <c r="D61">
-        <v>0.00895428688714517</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04786766156111839</v>
+      </c>
+      <c r="E61">
+        <v>0.02359545749972251</v>
+      </c>
+      <c r="F61">
+        <v>-0.08143239027759484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0128191589352633</v>
+        <v>-0.01482873210965578</v>
       </c>
       <c r="C63">
-        <v>-0.0364997444182653</v>
+        <v>0.03116497373064916</v>
       </c>
       <c r="D63">
-        <v>-0.004348881928542848</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02466607843523854</v>
+      </c>
+      <c r="E63">
+        <v>0.03919258943242368</v>
+      </c>
+      <c r="F63">
+        <v>-0.07535121654961108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05199646028060274</v>
+        <v>-0.0560469890894938</v>
       </c>
       <c r="C64">
-        <v>-0.03273148194959724</v>
+        <v>0.05478044638333694</v>
       </c>
       <c r="D64">
-        <v>-0.0108539582846351</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.008417913008252655</v>
+      </c>
+      <c r="E64">
+        <v>0.02402229255401207</v>
+      </c>
+      <c r="F64">
+        <v>-0.09026347921980121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.08979933127998219</v>
+        <v>-0.06650934648619186</v>
       </c>
       <c r="C65">
-        <v>-0.04367507479699209</v>
+        <v>0.03924388511334807</v>
       </c>
       <c r="D65">
-        <v>0.03990766972670674</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08690282213742413</v>
+      </c>
+      <c r="E65">
+        <v>0.0319991538823794</v>
+      </c>
+      <c r="F65">
+        <v>-0.02497864753557245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.05923456773333465</v>
+        <v>-0.05015089904921564</v>
       </c>
       <c r="C66">
-        <v>-0.1057436547748581</v>
+        <v>0.09114968431630892</v>
       </c>
       <c r="D66">
-        <v>0.02972126015397116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08058156748796273</v>
+      </c>
+      <c r="E66">
+        <v>0.02159551313799652</v>
+      </c>
+      <c r="F66">
+        <v>-0.09245049042277431</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05418578274642613</v>
+        <v>-0.04754019568310362</v>
       </c>
       <c r="C67">
-        <v>-0.0339236992899549</v>
+        <v>0.03158303986435029</v>
       </c>
       <c r="D67">
-        <v>-0.005208763803096553</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01507845898759918</v>
+      </c>
+      <c r="E67">
+        <v>0.02034719744791912</v>
+      </c>
+      <c r="F67">
+        <v>-0.05188058985151639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1117266601072434</v>
+        <v>-0.1545728993438699</v>
       </c>
       <c r="C68">
-        <v>0.2877473042902027</v>
+        <v>-0.2505764642077023</v>
       </c>
       <c r="D68">
-        <v>0.005304349781591816</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01833668689786747</v>
+      </c>
+      <c r="E68">
+        <v>0.04165457000986236</v>
+      </c>
+      <c r="F68">
+        <v>-0.01791893294482563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08527082182391908</v>
+        <v>-0.08719332731806344</v>
       </c>
       <c r="C69">
-        <v>-0.06680724728618539</v>
+        <v>0.08642225051123512</v>
       </c>
       <c r="D69">
-        <v>-0.03177615911894548</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008701580772154617</v>
+      </c>
+      <c r="E69">
+        <v>0.03297548972247823</v>
+      </c>
+      <c r="F69">
+        <v>-0.09727851261609136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1159487072058097</v>
+        <v>-0.1471067762717375</v>
       </c>
       <c r="C71">
-        <v>0.249351078902827</v>
+        <v>-0.2310830132666379</v>
       </c>
       <c r="D71">
-        <v>0.0260149160799117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01561199049926774</v>
+      </c>
+      <c r="E71">
+        <v>0.06096119644936132</v>
+      </c>
+      <c r="F71">
+        <v>-0.05545190451462421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08311131078249359</v>
+        <v>-0.09540535306543603</v>
       </c>
       <c r="C72">
-        <v>-0.05007138950495348</v>
+        <v>0.05793173683716965</v>
       </c>
       <c r="D72">
-        <v>-0.01695400462641329</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02095036415760067</v>
+      </c>
+      <c r="E72">
+        <v>0.01114220345399482</v>
+      </c>
+      <c r="F72">
+        <v>-0.0818709857621084</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4350954663744638</v>
+        <v>-0.3455702460075893</v>
       </c>
       <c r="C73">
-        <v>-0.06640095193050691</v>
+        <v>0.08265340890623495</v>
       </c>
       <c r="D73">
-        <v>0.06343779550991581</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4205657701208288</v>
+      </c>
+      <c r="E73">
+        <v>-0.4965693231449594</v>
+      </c>
+      <c r="F73">
+        <v>0.2851798552897143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1132166385154825</v>
+        <v>-0.1101031680817846</v>
       </c>
       <c r="C74">
-        <v>-0.1131095042588422</v>
+        <v>0.1016212378783769</v>
       </c>
       <c r="D74">
-        <v>-0.003772731508670363</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02790385586463424</v>
+      </c>
+      <c r="E74">
+        <v>0.06428552961788991</v>
+      </c>
+      <c r="F74">
+        <v>-0.05634545940232815</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2538552660021333</v>
+        <v>-0.2550393885908819</v>
       </c>
       <c r="C75">
-        <v>-0.1164973325894533</v>
+        <v>0.1410245810711962</v>
       </c>
       <c r="D75">
-        <v>-0.0349550308812488</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1265292867382339</v>
+      </c>
+      <c r="E75">
+        <v>0.07741665452452029</v>
+      </c>
+      <c r="F75">
+        <v>-0.01910889492597781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1140721596978338</v>
+        <v>-0.1271889797856929</v>
       </c>
       <c r="C76">
-        <v>-0.1014032606741452</v>
+        <v>0.1058739737242648</v>
       </c>
       <c r="D76">
-        <v>-0.02199671844758075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05726531287820272</v>
+      </c>
+      <c r="E76">
+        <v>0.06965901617227596</v>
+      </c>
+      <c r="F76">
+        <v>-0.06651181904305338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07687744194331485</v>
+        <v>-0.06088242602520883</v>
       </c>
       <c r="C77">
-        <v>-0.05845115843425334</v>
+        <v>0.0670174409714903</v>
       </c>
       <c r="D77">
-        <v>0.04451121216305882</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06518288904115196</v>
+      </c>
+      <c r="E77">
+        <v>0.06613301202102</v>
+      </c>
+      <c r="F77">
+        <v>-0.1116378437001982</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04347086624239174</v>
+        <v>-0.04332167724110949</v>
       </c>
       <c r="C78">
-        <v>-0.04316960337963481</v>
+        <v>0.05393048006547218</v>
       </c>
       <c r="D78">
-        <v>0.01392491433212482</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07386662261418378</v>
+      </c>
+      <c r="E78">
+        <v>0.02337106302796138</v>
+      </c>
+      <c r="F78">
+        <v>-0.1036703614058663</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02190331582831629</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03919095873747337</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05881310434842198</v>
+      </c>
+      <c r="E79">
+        <v>0.04932352742061743</v>
+      </c>
+      <c r="F79">
+        <v>-0.03465545958859156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04585763854603772</v>
+        <v>-0.03367872402770295</v>
       </c>
       <c r="C80">
-        <v>-0.05348313176566214</v>
+        <v>0.05302369451623228</v>
       </c>
       <c r="D80">
-        <v>0.02855607612426108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04864123532171846</v>
+      </c>
+      <c r="E80">
+        <v>0.008823624616552209</v>
+      </c>
+      <c r="F80">
+        <v>-0.03311751320225603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1431452788979657</v>
+        <v>-0.1389448900769895</v>
       </c>
       <c r="C81">
-        <v>-0.07747585681995298</v>
+        <v>0.09894133346534725</v>
       </c>
       <c r="D81">
-        <v>-0.0199430216138898</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09426045481728092</v>
+      </c>
+      <c r="E81">
+        <v>0.08239518982489553</v>
+      </c>
+      <c r="F81">
+        <v>-0.0224764459240917</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1212589603603743</v>
+        <v>-0.1933910064452954</v>
       </c>
       <c r="C82">
-        <v>-0.06168436386372083</v>
+        <v>0.1406257766607414</v>
       </c>
       <c r="D82">
-        <v>-0.124149664506353</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2269645195632638</v>
+      </c>
+      <c r="E82">
+        <v>0.01689265314852863</v>
+      </c>
+      <c r="F82">
+        <v>-0.08191138171843147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.03030001309780404</v>
+        <v>-0.02646112638807386</v>
       </c>
       <c r="C83">
-        <v>-0.01975195913456274</v>
+        <v>0.03938680702621191</v>
       </c>
       <c r="D83">
-        <v>0.01024566678608733</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03463198610153755</v>
+      </c>
+      <c r="E83">
+        <v>0.007585654644931869</v>
+      </c>
+      <c r="F83">
+        <v>-0.04802673634399699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2300493741816705</v>
+        <v>-0.2043734807566366</v>
       </c>
       <c r="C85">
-        <v>-0.1107802965800081</v>
+        <v>0.1267369823355773</v>
       </c>
       <c r="D85">
-        <v>-0.08822919873310156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1060166675517776</v>
+      </c>
+      <c r="E85">
+        <v>0.006913843236780804</v>
+      </c>
+      <c r="F85">
+        <v>0.01936391093275038</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0005868637546177806</v>
+        <v>-0.01176769258024078</v>
       </c>
       <c r="C86">
-        <v>-0.02418438335588502</v>
+        <v>0.03030020429131802</v>
       </c>
       <c r="D86">
-        <v>0.0171500372730874</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07363743627765354</v>
+      </c>
+      <c r="E86">
+        <v>0.04468292576510326</v>
+      </c>
+      <c r="F86">
+        <v>-0.1383220609503573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01563954808210538</v>
+        <v>-0.02009585435340434</v>
       </c>
       <c r="C87">
-        <v>-0.01971200819807208</v>
+        <v>0.02097626686361402</v>
       </c>
       <c r="D87">
-        <v>0.08890771531583953</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09369233282976404</v>
+      </c>
+      <c r="E87">
+        <v>0.08535462503771092</v>
+      </c>
+      <c r="F87">
+        <v>-0.09161903206568617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1032614636488657</v>
+        <v>-0.09014968262414232</v>
       </c>
       <c r="C88">
-        <v>-0.07092395700400955</v>
+        <v>0.06447217823027447</v>
       </c>
       <c r="D88">
-        <v>-0.01399980085028835</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01339484102140654</v>
+      </c>
+      <c r="E88">
+        <v>0.03304933513213012</v>
+      </c>
+      <c r="F88">
+        <v>-0.06751473354318017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1844515245455618</v>
+        <v>-0.2282250045290821</v>
       </c>
       <c r="C89">
-        <v>0.3764164670678548</v>
+        <v>-0.3786819755800769</v>
       </c>
       <c r="D89">
-        <v>-0.02660218204413997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01515744348299997</v>
+      </c>
+      <c r="E89">
+        <v>0.03782372984464165</v>
+      </c>
+      <c r="F89">
+        <v>-0.09797793154388319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1754524341417208</v>
+        <v>-0.2062945597497564</v>
       </c>
       <c r="C90">
-        <v>0.3444706940080552</v>
+        <v>-0.3131301980214942</v>
       </c>
       <c r="D90">
-        <v>-0.002206008303921396</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01293829606843121</v>
+      </c>
+      <c r="E90">
+        <v>0.06479706234326206</v>
+      </c>
+      <c r="F90">
+        <v>-0.04633042207738997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.201929655881654</v>
+        <v>-0.1891663559953902</v>
       </c>
       <c r="C91">
-        <v>-0.1084909194785315</v>
+        <v>0.1400038058438535</v>
       </c>
       <c r="D91">
-        <v>-0.0389523439812272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1015270355819866</v>
+      </c>
+      <c r="E91">
+        <v>0.07366705313926498</v>
+      </c>
+      <c r="F91">
+        <v>-0.04436759058608764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1674704906619195</v>
+        <v>-0.1863605373271457</v>
       </c>
       <c r="C92">
-        <v>0.2875369602510489</v>
+        <v>-0.278510406849949</v>
       </c>
       <c r="D92">
-        <v>-0.01085051386237882</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.003631512247047768</v>
+      </c>
+      <c r="E92">
+        <v>0.07021620297234452</v>
+      </c>
+      <c r="F92">
+        <v>-0.06836645664178889</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.2018035156151648</v>
+        <v>-0.2300123513166056</v>
       </c>
       <c r="C93">
-        <v>0.3439474656828647</v>
+        <v>-0.31772861289606</v>
       </c>
       <c r="D93">
-        <v>0.009644159679120251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0007485801659197644</v>
+      </c>
+      <c r="E93">
+        <v>0.05007594464544064</v>
+      </c>
+      <c r="F93">
+        <v>-0.04148812696690508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.3317490051688441</v>
+        <v>-0.3385038743594813</v>
       </c>
       <c r="C94">
-        <v>-0.1591740049528259</v>
+        <v>0.1950342141737307</v>
       </c>
       <c r="D94">
-        <v>-0.1319706664754877</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.47329936680875</v>
+      </c>
+      <c r="E94">
+        <v>0.1494135206022707</v>
+      </c>
+      <c r="F94">
+        <v>0.440684811247506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.08985943432426458</v>
+        <v>-0.08199597776925081</v>
       </c>
       <c r="C95">
-        <v>-0.06068962506296971</v>
+        <v>0.07080330875395409</v>
       </c>
       <c r="D95">
-        <v>0.0453461345206958</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1548913152633576</v>
+      </c>
+      <c r="E95">
+        <v>-0.1332958199858524</v>
+      </c>
+      <c r="F95">
+        <v>-0.1761248388896269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1959657416786417</v>
+        <v>-0.1888627629919907</v>
       </c>
       <c r="C98">
-        <v>-0.01752622235858803</v>
+        <v>0.04260261060379883</v>
       </c>
       <c r="D98">
-        <v>0.04006087424696776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1721608617645657</v>
+      </c>
+      <c r="E98">
+        <v>-0.15835613603955</v>
+      </c>
+      <c r="F98">
+        <v>0.03411852867350276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.008501628871633873</v>
+        <v>-0.006272029343425816</v>
       </c>
       <c r="C101">
-        <v>-0.02639154740438151</v>
+        <v>0.02520216797137439</v>
       </c>
       <c r="D101">
-        <v>-0.01753862690139155</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02407670375356905</v>
+      </c>
+      <c r="E101">
+        <v>0.0316652572006153</v>
+      </c>
+      <c r="F101">
+        <v>-0.08967914590309806</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1195821288540528</v>
+        <v>-0.1222067947464818</v>
       </c>
       <c r="C102">
-        <v>-0.07361729192768518</v>
+        <v>0.1012761294743601</v>
       </c>
       <c r="D102">
-        <v>-0.03630749157928</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05093028660152495</v>
+      </c>
+      <c r="E102">
+        <v>-0.007120679301037039</v>
+      </c>
+      <c r="F102">
+        <v>-0.04064962422007986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
